--- a/Files_for_testing/Cli_prep_test_files/File_2.xlsx
+++ b/Files_for_testing/Cli_prep_test_files/File_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLI_Automation\Files_for_testing\Cli_prep_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C1845-2E97-46D2-B766-8228BBEC6715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111BDE9F-DEF7-4DAD-AF97-34E88FE17907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8ABCAD-E5C1-4AA0-B7FE-346A6CF35D1F}">
   <dimension ref="A1:BJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
